--- a/resnet50_result_table.xlsx
+++ b/resnet50_result_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSDL_JAH\2022_IEEE_논문\IEEE_Estimating-Knee-Joint-Angle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AD44BA-5553-40F0-BB89-5C7DF8840A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8D647-8799-44D3-AA6B-ECDCD48D0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31455" yWindow="0" windowWidth="25920" windowHeight="15600" xr2:uid="{B2DC4D10-2DF7-4C00-99D7-A5402FEBDCD9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2DC4D10-2DF7-4C00-99D7-A5402FEBDCD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,9 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>New_Both_Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,9 +339,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일명
+    <t>1.882 ± 2.185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.777 ± 2.065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data\Dataset\
 side_both_···_dataset
 (shuffle한 dataset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data 파일경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1296,19 +1309,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1392,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,82 +1642,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1726,9 +1651,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,31 +1669,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1780,61 +1732,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2159,7 +2150,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2175,7 +2166,7 @@
     <col min="19" max="19" width="6.625" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.25" style="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="3.75" style="1" customWidth="1"/>
     <col min="23" max="24" width="7.25" style="1" customWidth="1"/>
     <col min="25" max="28" width="8.625" style="1" customWidth="1"/>
     <col min="29" max="29" width="13.75" style="1" customWidth="1"/>
@@ -2185,80 +2176,79 @@
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:31" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131"/>
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
-      <c r="W2" s="89" t="s">
+      <c r="W2" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="119"/>
     </row>
     <row r="3" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="108"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="134"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="92" t="s">
+      <c r="W3" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="94"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="122"/>
     </row>
     <row r="4" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="107"/>
-      <c r="B4" s="125" t="s">
-        <v>65</v>
+      <c r="B4" s="95" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>28</v>
@@ -2278,25 +2268,25 @@
       <c r="H4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="86" t="s">
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="86" t="s">
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="84" t="s">
+      <c r="P4" s="139"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="85"/>
+      <c r="S4" s="137"/>
       <c r="T4" s="31" t="s">
         <v>63</v>
       </c>
@@ -2333,11 +2323,11 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
-      <c r="B5" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="132">
+      <c r="A5" s="113"/>
+      <c r="B5" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="98">
         <v>1E-3</v>
       </c>
       <c r="D5" s="16">
@@ -2427,9 +2417,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="117">
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="91">
         <v>1E-3</v>
       </c>
       <c r="D6" s="16">
@@ -2519,9 +2509,9 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="129">
+      <c r="A7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="96">
         <v>1E-3</v>
       </c>
       <c r="D7" s="49">
@@ -2611,9 +2601,9 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="131"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="130">
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="97">
         <v>1E-3</v>
       </c>
       <c r="D8" s="20">
@@ -2703,49 +2693,48 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131"/>
-      <c r="B9" s="133"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="99"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="135"/>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="100"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="95" t="s">
+      <c r="W10" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="125"/>
     </row>
     <row r="11" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="125" t="s">
-        <v>65</v>
+      <c r="B11" s="95" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>28</v>
@@ -2765,25 +2754,25 @@
       <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="86" t="s">
+      <c r="J11" s="139"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="87"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="86" t="s">
+      <c r="M11" s="139"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="84" t="s">
+      <c r="P11" s="139"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="S11" s="85"/>
+      <c r="S11" s="137"/>
       <c r="T11" s="31" t="s">
         <v>63</v>
       </c>
@@ -2820,8 +2809,8 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="126" t="s">
-        <v>72</v>
+      <c r="B12" s="110" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="52">
         <v>1E-3</v>
@@ -2913,7 +2902,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="127"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="5">
         <v>1E-3</v>
       </c>
@@ -3004,7 +2993,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="5">
         <v>1E-3</v>
       </c>
@@ -3095,7 +3084,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="127"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="5">
         <v>1E-3</v>
       </c>
@@ -3186,7 +3175,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5">
         <v>1E-3</v>
       </c>
@@ -3277,7 +3266,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="128"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="9">
         <v>1E-3</v>
       </c>
@@ -3327,7 +3316,7 @@
         <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
-      <c r="S17" s="110">
+      <c r="S17" s="85">
         <f t="shared" si="5"/>
         <v>2.2160000000000002</v>
       </c>
@@ -3368,38 +3357,14 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
+      <c r="G18" s="84"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
     </row>
     <row r="19" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="125" t="s">
-        <v>69</v>
+      <c r="B19" s="95" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>28</v>
@@ -3419,55 +3384,46 @@
       <c r="H19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I19" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="86" t="s">
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="87"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="86" t="s">
+      <c r="M19" s="139"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="84" t="s">
+      <c r="P19" s="139"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="85"/>
+      <c r="S19" s="137"/>
       <c r="T19" s="31" t="s">
         <v>63</v>
       </c>
       <c r="U19" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
     </row>
     <row r="20" spans="2:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="111">
+      <c r="B20" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5">
         <v>1E-3</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="87">
         <v>500</v>
       </c>
-      <c r="E20" s="113">
+      <c r="E20" s="87">
         <v>256</v>
       </c>
-      <c r="F20" s="112">
+      <c r="F20" s="86">
         <v>0.98199999999999998</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3476,39 +3432,54 @@
       <c r="H20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114">
+      <c r="I20" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="88">
         <v>1.244</v>
       </c>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="114">
+      <c r="M20" s="89">
+        <v>1.296</v>
+      </c>
+      <c r="N20" s="89">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="O20" s="88">
         <v>0.97699999999999998</v>
       </c>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="122"/>
+      <c r="P20" s="87">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Q20" s="93">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="R20" s="141">
+        <f>ROUND(AVERAGE(LEFT(I20,5), LEFT(J20,5), LEFT(K20,5)),3)</f>
+        <v>1.821</v>
+      </c>
+      <c r="S20" s="142">
+        <f>ROUND(AVERAGE(RIGHT(I20,5), RIGHT(J20,5), RIGHT(K20,5)),3)</f>
+        <v>2.121</v>
+      </c>
+      <c r="T20" s="143">
+        <f>ROUND(AVERAGE(L20:N20),3)</f>
+        <v>1.256</v>
+      </c>
+      <c r="U20" s="144">
+        <f t="shared" ref="U20" si="7">ROUND(AVERAGE(O20:Q20),3)</f>
+        <v>0.97699999999999998</v>
+      </c>
       <c r="V20" s="41"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
     </row>
     <row r="21" spans="2:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="2"/>
@@ -3525,43 +3496,34 @@
       <c r="O21" s="2"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="119"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="65"/>
       <c r="T21" s="60"/>
-      <c r="U21" s="116"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
+      <c r="U21" s="90"/>
     </row>
-    <row r="22" spans="2:31" s="107" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="134" t="s">
-        <v>68</v>
+    <row r="22" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="100" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="30"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="130"/>
+      <c r="H22" s="97"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="130"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="10"/>
       <c r="N22" s="30"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="110"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="85"/>
       <c r="T22" s="61"/>
-      <c r="U22" s="138"/>
+      <c r="U22" s="103"/>
       <c r="V22" s="41"/>
     </row>
     <row r="23" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3577,7 +3539,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
-      <c r="N23" s="136"/>
+      <c r="N23" s="101"/>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -3598,16 +3560,16 @@
     </row>
     <row r="24" spans="2:31" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="140"/>
-      <c r="D25" s="83" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="39"/>
       <c r="L25" s="37"/>
       <c r="M25" s="17"/>
@@ -3615,8 +3577,8 @@
       <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:31" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="141" t="s">
-        <v>71</v>
+      <c r="C26" s="106" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -3647,10 +3609,10 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:31" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="142">
+      <c r="C27" s="114">
         <v>900</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="87">
         <v>100</v>
       </c>
       <c r="E27" s="3">
@@ -3674,8 +3636,8 @@
       <c r="K27" s="41"/>
     </row>
     <row r="28" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="116"/>
-      <c r="C28" s="143"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="2">
         <v>100</v>
       </c>
@@ -3700,8 +3662,8 @@
       <c r="K28" s="41"/>
     </row>
     <row r="29" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="116"/>
-      <c r="C29" s="143"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="2">
         <v>100</v>
       </c>
@@ -3726,8 +3688,8 @@
       <c r="K29" s="41"/>
     </row>
     <row r="30" spans="2:31" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="116"/>
-      <c r="C30" s="144"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="10">
         <v>100</v>
       </c>
@@ -3768,33 +3730,40 @@
       </c>
     </row>
     <row r="33" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="145">
+      <c r="C33" s="107">
         <v>855</v>
       </c>
-      <c r="D33" s="146">
+      <c r="D33" s="108">
         <v>500</v>
       </c>
-      <c r="E33" s="146">
+      <c r="E33" s="108">
         <v>256</v>
       </c>
-      <c r="F33" s="146">
+      <c r="F33" s="108">
         <v>428</v>
       </c>
-      <c r="G33" s="146">
+      <c r="G33" s="108">
         <v>0.5</v>
       </c>
-      <c r="H33" s="146">
+      <c r="H33" s="108">
         <v>250</v>
       </c>
-      <c r="I33" s="146">
+      <c r="I33" s="108">
         <v>0.98199999999999998</v>
       </c>
-      <c r="J33" s="147">
+      <c r="J33" s="109">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B8"/>
@@ -3811,13 +3780,6 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:S19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resnet50_result_table.xlsx
+++ b/resnet50_result_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MSDL_JAH\2022_IEEE_논문\IEEE_Estimating-Knee-Joint-Angle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA8D647-8799-44D3-AA6B-ECDCD48D0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AEFC65-48F8-4824-9CF3-CB19EA27E21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2DC4D10-2DF7-4C00-99D7-A5402FEBDCD9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1723,6 +1724,33 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1799,33 +1827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2150,7 +2151,7 @@
   <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2176,75 +2177,75 @@
   <sheetData>
     <row r="1" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:31" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="131"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="140"/>
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
-      <c r="W2" s="117" t="s">
+      <c r="W2" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="119"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="128"/>
     </row>
     <row r="3" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="83"/>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="134"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="143"/>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
-      <c r="W3" s="120" t="s">
+      <c r="W3" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="122"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="131"/>
     </row>
     <row r="4" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="95" t="s">
@@ -2268,25 +2269,25 @@
       <c r="H4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="138" t="s">
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="139"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="138" t="s">
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="136" t="s">
+      <c r="P4" s="117"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="137"/>
+      <c r="S4" s="115"/>
       <c r="T4" s="31" t="s">
         <v>63</v>
       </c>
@@ -2323,8 +2324,8 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="113"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="98">
@@ -2417,8 +2418,8 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="113"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="91">
         <v>1E-3</v>
       </c>
@@ -2509,8 +2510,8 @@
       </c>
     </row>
     <row r="7" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="113"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="96">
         <v>1E-3</v>
       </c>
@@ -2601,8 +2602,8 @@
       </c>
     </row>
     <row r="8" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="97">
         <v>1E-3</v>
       </c>
@@ -2693,44 +2694,44 @@
       </c>
     </row>
     <row r="9" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="99"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="123" t="s">
+      <c r="W10" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="124"/>
-      <c r="AC10" s="124"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="125"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="134"/>
     </row>
     <row r="11" spans="1:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="95" t="s">
@@ -2754,25 +2755,25 @@
       <c r="H11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="138" t="s">
+      <c r="I11" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="138" t="s">
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="139"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="138" t="s">
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="139"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="136" t="s">
+      <c r="P11" s="117"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="S11" s="137"/>
+      <c r="S11" s="115"/>
       <c r="T11" s="31" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2810,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="119" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="52">
@@ -2902,7 +2903,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="111"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="5">
         <v>1E-3</v>
       </c>
@@ -2993,7 +2994,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="111"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="5">
         <v>1E-3</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
     </row>
     <row r="15" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="111"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="5">
         <v>1E-3</v>
       </c>
@@ -3175,7 +3176,7 @@
       </c>
     </row>
     <row r="16" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="111"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5">
         <v>1E-3</v>
       </c>
@@ -3266,7 +3267,7 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="112"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="9">
         <v>1E-3</v>
       </c>
@@ -3384,25 +3385,25 @@
       <c r="H19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="138" t="s">
+      <c r="I19" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="139"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="138" t="s">
+      <c r="J19" s="117"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="139"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="138" t="s">
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="136" t="s">
+      <c r="P19" s="117"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="137"/>
+      <c r="S19" s="115"/>
       <c r="T19" s="31" t="s">
         <v>63</v>
       </c>
@@ -3459,19 +3460,19 @@
       <c r="Q20" s="93">
         <v>0.97799999999999998</v>
       </c>
-      <c r="R20" s="141">
+      <c r="R20" s="110">
         <f>ROUND(AVERAGE(LEFT(I20,5), LEFT(J20,5), LEFT(K20,5)),3)</f>
         <v>1.821</v>
       </c>
-      <c r="S20" s="142">
+      <c r="S20" s="111">
         <f>ROUND(AVERAGE(RIGHT(I20,5), RIGHT(J20,5), RIGHT(K20,5)),3)</f>
         <v>2.121</v>
       </c>
-      <c r="T20" s="143">
+      <c r="T20" s="112">
         <f>ROUND(AVERAGE(L20:N20),3)</f>
         <v>1.256</v>
       </c>
-      <c r="U20" s="144">
+      <c r="U20" s="113">
         <f t="shared" ref="U20" si="7">ROUND(AVERAGE(O20:Q20),3)</f>
         <v>0.97699999999999998</v>
       </c>
@@ -3561,15 +3562,15 @@
     <row r="24" spans="2:31" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="105"/>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
       <c r="K25" s="39"/>
       <c r="L25" s="37"/>
       <c r="M25" s="17"/>
@@ -3609,7 +3610,7 @@
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:31" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="114">
+      <c r="C27" s="123">
         <v>900</v>
       </c>
       <c r="D27" s="87">
@@ -3637,7 +3638,7 @@
     </row>
     <row r="28" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="90"/>
-      <c r="C28" s="115"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="2">
         <v>100</v>
       </c>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="29" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="90"/>
-      <c r="C29" s="115"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="2">
         <v>100</v>
       </c>
@@ -3689,7 +3690,7 @@
     </row>
     <row r="30" spans="2:31" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="90"/>
-      <c r="C30" s="116"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="10">
         <v>100</v>
       </c>
@@ -3757,13 +3758,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B8"/>
@@ -3780,6 +3774,13 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
